--- a/2025-10-20/20_fixtures.xlsx
+++ b/2025-10-20/20_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,24 +481,136 @@
       </c>
     </row>
     <row r="2">
-      <c r="K2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Juticalpa FC - CD Olimpia ✓: 0:2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CD Olimpia</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Caguas Sporting FC ✓ - Guayama FC: 10:1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Caguas Sporting FC</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Asante Kotoko SC  - Young Apostles FC: 15:00</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Asante Kotoko SC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="K5">
         <f>COUNTIF(I:I,TRUE)</f>
         <v/>
       </c>
-      <c r="L2">
-        <f>(K2/K4)*100</f>
+      <c r="L5">
+        <f>(K5/K7)*100</f>
         <v/>
       </c>
     </row>
-    <row r="3">
-      <c r="K3">
+    <row r="6">
+      <c r="K6">
         <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="4">
-      <c r="K4">
-        <f>K2+K3</f>
+    <row r="7">
+      <c r="K7">
+        <f>K5+K6</f>
         <v/>
       </c>
     </row>
